--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00Project\00_src\java\perfect_v4\00_doc\01_设计思路\01_权限设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaohua/project/spring/perfect_v5/00_doc/01_设计思路/01_权限设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C36A3C-D1D5-2D45-9656-CD9C25259F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20920" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
     <sheet name="表结构理解" sheetId="2" r:id="rId2"/>
     <sheet name="表" sheetId="3" r:id="rId3"/>
-    <sheet name="m_permission" sheetId="5" r:id="rId4"/>
-    <sheet name="m_permission_operation" sheetId="10" r:id="rId5"/>
-    <sheet name="s_operation" sheetId="6" r:id="rId6"/>
-    <sheet name="s_pages" sheetId="7" r:id="rId7"/>
-    <sheet name="s_pages_function" sheetId="8" r:id="rId8"/>
-    <sheet name="s_menu" sheetId="9" r:id="rId9"/>
+    <sheet name="关于权限的表" sheetId="11" r:id="rId4"/>
+    <sheet name="m_permission" sheetId="5" r:id="rId5"/>
+    <sheet name="m_permission_operation" sheetId="10" r:id="rId6"/>
+    <sheet name="s_operation" sheetId="6" r:id="rId7"/>
+    <sheet name="s_pages" sheetId="7" r:id="rId8"/>
+    <sheet name="s_pages_function" sheetId="8" r:id="rId9"/>
+    <sheet name="s_menu" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="258">
   <si>
     <t>operation</t>
   </si>
@@ -1000,13 +1002,65 @@
   <si>
     <t>ok</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未使用，1:已使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,6 +1303,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,9 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,7 +1352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1355,7 +1415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1412,7 +1478,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="2" idx="0"/>
@@ -1462,7 +1534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1520,7 +1598,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="1"/>
           <a:endCxn id="2" idx="3"/>
@@ -1570,7 +1654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1631,7 +1721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1689,7 +1785,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvPr id="15" name="矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1747,7 +1849,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1812,7 +1920,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1870,7 +1984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="1"/>
           <a:endCxn id="14" idx="3"/>
@@ -1920,7 +2040,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="1"/>
           <a:endCxn id="14" idx="3"/>
@@ -1970,7 +2096,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="1"/>
           <a:endCxn id="13" idx="3"/>
@@ -2020,7 +2152,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="1"/>
           <a:endCxn id="13" idx="3"/>
@@ -2070,7 +2208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvPr id="29" name="矩形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2131,7 +2275,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矩形 31"/>
+        <xdr:cNvPr id="32" name="矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2192,7 +2342,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="29" idx="1"/>
           <a:endCxn id="9" idx="3"/>
@@ -2242,7 +2398,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="1"/>
           <a:endCxn id="9" idx="3"/>
@@ -2292,7 +2454,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="32" idx="1"/>
           <a:endCxn id="9" idx="3"/>
@@ -2342,7 +2510,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2408,7 +2582,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2466,7 +2646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="1"/>
           <a:endCxn id="18" idx="3"/>
@@ -2516,7 +2702,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="40" idx="1"/>
           <a:endCxn id="17" idx="3"/>
@@ -2571,7 +2763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2639,7 +2837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2696,7 +2900,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2753,7 +2963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2815,7 +3031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2901,7 +3123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2961,7 +3189,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3018,7 +3252,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3080,7 +3320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3166,7 +3412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3230,7 +3482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3287,7 +3545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3352,7 +3616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3438,7 +3708,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3502,7 +3778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3569,7 +3851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3883,21 +4171,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F26:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:19">
       <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
@@ -3915,6 +4203,265 @@
       </c>
       <c r="S26" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3926,47 +4473,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" style="3" customWidth="1"/>
     <col min="9" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="4" style="3" customWidth="1"/>
     <col min="18" max="18" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.25" style="3" customWidth="1"/>
-    <col min="21" max="22" width="8.875" style="3"/>
+    <col min="20" max="20" width="4.1640625" style="3" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" style="3"/>
     <col min="23" max="23" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.875" style="3"/>
-    <col min="26" max="26" width="5.125" style="3" customWidth="1"/>
-    <col min="27" max="28" width="8.875" style="3"/>
-    <col min="29" max="29" width="8.875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.875" style="3"/>
+    <col min="24" max="24" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="3"/>
+    <col min="26" max="26" width="5.1640625" style="3" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" style="3"/>
+    <col min="29" max="29" width="8.83203125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.83203125" style="3"/>
     <col min="31" max="31" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.875" style="3"/>
+    <col min="32" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:37">
       <c r="AD1" s="3" t="s">
         <v>243</v>
       </c>
@@ -3977,107 +4524,107 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:37">
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="13" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="I2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="J2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="s">
+      <c r="P2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="U2" s="13" t="s">
+      <c r="S2" s="14"/>
+      <c r="U2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="AA2" s="13" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="AA2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AD2" s="13" t="s">
+      <c r="AB2" s="14"/>
+      <c r="AD2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AG2" s="13" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AG2" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AJ2" s="13" t="s">
+      <c r="AH2" s="14"/>
+      <c r="AJ2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="13"/>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="AK2" s="14"/>
+    </row>
+    <row r="3" spans="2:37">
+      <c r="B3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="13" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="I3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="L3" s="13" t="s">
+      <c r="J3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="O3" s="13" t="s">
+      <c r="M3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="R3" s="13" t="s">
+      <c r="P3" s="14"/>
+      <c r="R3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="U3" s="13" t="s">
+      <c r="S3" s="14"/>
+      <c r="U3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="AA3" s="13" t="s">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="AA3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AD3" s="13" t="s">
+      <c r="AB3" s="14"/>
+      <c r="AD3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" s="13"/>
-      <c r="AG3" s="13" t="s">
+      <c r="AE3" s="14"/>
+      <c r="AG3" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="AH3" s="13"/>
-      <c r="AJ3" s="13" t="s">
+      <c r="AH3" s="14"/>
+      <c r="AJ3" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="AK3" s="13"/>
-    </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AK3" s="14"/>
+    </row>
+    <row r="4" spans="2:37">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4157,7 +4704,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:37">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -4237,7 +4784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:37">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -4317,7 +4864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:37">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -4397,7 +4944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:37">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -4411,7 +4958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:37">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -4425,7 +4972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:37">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -4439,7 +4986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:37">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -4453,7 +5000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:37">
       <c r="L12" s="5">
         <v>8</v>
       </c>
@@ -4461,7 +5008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37">
       <c r="L13" s="5">
         <v>9</v>
       </c>
@@ -4500,26 +5047,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -4539,7 +5086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -4553,7 +5100,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -4569,7 +5116,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -4585,7 +5132,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -4601,7 +5148,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -4617,7 +5164,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -4635,7 +5182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -4649,7 +5196,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -4663,63 +5210,63 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>212</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>212</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -4729,7 +5276,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -4739,7 +5286,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -4749,7 +5296,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -4759,7 +5306,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -4769,7 +5316,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -4787,169 +5334,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A78A60-FF7F-F340-BE7A-B4AB4410EDEA}">
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="8">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="8">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="9">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4958,23 +5496,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -4982,13 +5521,13 @@
         <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -4998,108 +5537,159 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+    <row r="5" spans="2:5">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="16">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
+      <c r="F19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>187</v>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5109,26 +5699,177 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
@@ -5142,7 +5883,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5150,7 +5891,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5164,7 +5905,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5175,7 +5916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -5189,7 +5930,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -5203,7 +5944,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -5214,7 +5955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -5225,12 +5966,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8">
       <c r="F23" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8">
       <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
@@ -5250,7 +5991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -5267,7 +6008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8">
       <c r="C26" s="1">
         <v>2</v>
       </c>
@@ -5284,7 +6025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8">
       <c r="C27" s="1">
         <v>3</v>
       </c>
@@ -5301,7 +6042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8">
       <c r="C28" s="1">
         <v>4</v>
       </c>
@@ -5318,7 +6059,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8">
       <c r="C29" s="1">
         <v>5</v>
       </c>
@@ -5335,7 +6076,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8">
       <c r="C30" s="1">
         <v>6</v>
       </c>
@@ -5352,32 +6093,32 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8">
       <c r="C31" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8">
       <c r="C32" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3">
       <c r="C34" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3">
       <c r="C35" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3">
       <c r="C36" s="1">
         <v>12</v>
       </c>
@@ -5390,27 +6131,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,7 +6165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5432,7 +6173,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5446,7 +6187,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5460,7 +6201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -5474,7 +6215,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -5488,7 +6229,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -5499,27 +6240,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="B10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5">
       <c r="B11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5">
       <c r="B12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
         <v>107</v>
       </c>
@@ -5539,7 +6280,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8">
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -5560,270 +6301,33 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8">
       <c r="C22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8">
       <c r="C23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8">
       <c r="C24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8">
       <c r="C25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8">
       <c r="C26" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8">
       <c r="C27" s="1">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>E22&amp;":"&amp;D22</f>
-        <v>PAGE:ADD</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f>E23&amp;":"&amp;D23</f>
-        <v>PAGE:UPD</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f>E24&amp;":"&amp;D24</f>
-        <v>PAGE:EXPORT</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="1">
         <v>7</v>
       </c>
     </row>
@@ -5835,24 +6339,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
@@ -5866,7 +6374,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5874,221 +6382,195 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>111</v>
+      <c r="D4" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>21</v>
+        <v>107</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>E22&amp;":"&amp;D22</f>
+        <v>PAGE:ADD</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>E23&amp;":"&amp;D23</f>
+        <v>PAGE:UPD</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>E24&amp;":"&amp;D24</f>
+        <v>PAGE:EXPORT</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaohua/project/spring/perfect_v5/00_doc/01_设计思路/01_权限设计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00Project\00_src\java\perfect_v5\00_doc\01_设计思路\01_权限设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C36A3C-D1D5-2D45-9656-CD9C25259F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20920" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20925" tabRatio="714" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -18,13 +17,15 @@
     <sheet name="表" sheetId="3" r:id="rId3"/>
     <sheet name="关于权限的表" sheetId="11" r:id="rId4"/>
     <sheet name="m_permission" sheetId="5" r:id="rId5"/>
-    <sheet name="m_permission_operation" sheetId="10" r:id="rId6"/>
-    <sheet name="s_operation" sheetId="6" r:id="rId7"/>
-    <sheet name="s_pages" sheetId="7" r:id="rId8"/>
-    <sheet name="s_pages_function" sheetId="8" r:id="rId9"/>
-    <sheet name="s_menu" sheetId="9" r:id="rId10"/>
+    <sheet name="m_permission_menu" sheetId="12" r:id="rId6"/>
+    <sheet name="m_permission_pages" sheetId="13" r:id="rId7"/>
+    <sheet name="m_permission_operation" sheetId="10" r:id="rId8"/>
+    <sheet name="s_operation" sheetId="6" r:id="rId9"/>
+    <sheet name="s_pages" sheetId="7" r:id="rId10"/>
+    <sheet name="s_pages_function" sheetId="8" r:id="rId11"/>
+    <sheet name="s_menu" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="304">
   <si>
     <t>operation</t>
   </si>
@@ -685,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户权限、部门权限、岗位权限、排除权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,18 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>permission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>page；menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,308 +744,461 @@
     <t>排序</t>
   </si>
   <si>
-    <t>operation_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能操作ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单-首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_menus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>菜单类型（R：根节点，M：菜单， N：结点 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单状态（0显示 1隐藏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由编号，需要唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附在导航栏不可关闭</t>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未使用，1:已使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父菜单ID</t>
   </si>
   <si>
     <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单-租户主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单-租户主菜单-首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>菜单类型（R：根结点；N：节点；P：页面）</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>菜单状态（0显示 1隐藏）</t>
+  </si>
+  <si>
+    <t>perms</t>
+  </si>
+  <si>
+    <t>权限标识</t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>页面id</t>
+  </si>
+  <si>
+    <t>page_code</t>
+  </si>
+  <si>
+    <t>页面code</t>
+  </si>
+  <si>
+    <t>parent_path</t>
+  </si>
+  <si>
+    <t>父结点请求地址</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>full_path</t>
+  </si>
+  <si>
+    <t>完整地址</t>
+  </si>
+  <si>
+    <t>route_name</t>
+  </si>
+  <si>
+    <t>路由名，需要唯一，很重要，且需要vue这里手工录入</t>
+  </si>
+  <si>
+    <t>meta_title</t>
+  </si>
+  <si>
+    <t>菜单名</t>
+  </si>
+  <si>
+    <t>meta_icon</t>
+  </si>
+  <si>
+    <t>菜单icon</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>affix</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>c_id</t>
+  </si>
+  <si>
+    <t>c_time</t>
+  </si>
+  <si>
+    <t>u_id</t>
+  </si>
+  <si>
+    <t>u_time</t>
+  </si>
+  <si>
+    <t>dbversion</t>
+  </si>
+  <si>
+    <t>数据版本，乐观锁使用</t>
+  </si>
+  <si>
+    <t>配置vue export default  name时所使用的type：constants_program.P_VUE_SETTING</t>
   </si>
   <si>
     <t>页面名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/views/01_dashboard/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面操作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_menus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单类型（R：根节点，M：菜单， N：结点 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单状态（0显示 1隐藏）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求地址</t>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>route_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由编号，需要唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附在导航栏不可关闭</t>
-  </si>
-  <si>
-    <t>descr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未使用，1:已使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同s_pages_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同s_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单号类型</t>
+  </si>
+  <si>
+    <t>页面地址：@/views/10_system/vuesetting/vue</t>
+  </si>
+  <si>
+    <t>页面的名称</t>
+  </si>
+  <si>
+    <t>菜单中显示的icon</t>
+  </si>
+  <si>
+    <t>不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
+  </si>
+  <si>
+    <t>function_id</t>
+  </si>
+  <si>
+    <t>按钮id</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_menu的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_pages页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10（部门权限）、20（岗位权限）、30（用户权限）、40（排除权限）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4171,21 +4309,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F26:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="26" spans="6:19">
+    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
@@ -4214,24 +4352,468 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>D21</f>
+        <v>P_DICT_DATA</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>E22&amp;":"&amp;D22</f>
+        <v>PAGE:ADD</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>E23&amp;":"&amp;D23</f>
+        <v>PAGE:UPD</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>E24&amp;":"&amp;D24</f>
+        <v>PAGE:EXPORT</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
@@ -4245,7 +4827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -4253,7 +4835,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -4264,10 +4846,10 @@
         <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4275,191 +4857,191 @@
         <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -4473,58 +5055,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK13"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" style="3" customWidth="1"/>
     <col min="9" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="3" customWidth="1"/>
     <col min="17" max="17" width="4" style="3" customWidth="1"/>
     <col min="18" max="18" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.1640625" style="3" customWidth="1"/>
-    <col min="21" max="22" width="8.83203125" style="3"/>
+    <col min="20" max="20" width="4.125" style="3" customWidth="1"/>
+    <col min="21" max="22" width="8.875" style="3"/>
     <col min="23" max="23" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="3"/>
-    <col min="26" max="26" width="5.1640625" style="3" customWidth="1"/>
-    <col min="27" max="28" width="8.83203125" style="3"/>
-    <col min="29" max="29" width="8.83203125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="3"/>
+    <col min="24" max="24" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.875" style="3"/>
+    <col min="26" max="26" width="5.125" style="3" customWidth="1"/>
+    <col min="27" max="28" width="8.875" style="3"/>
+    <col min="29" max="29" width="8.875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.875" style="3"/>
     <col min="31" max="31" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.83203125" style="3"/>
+    <col min="32" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AD1" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="2:37">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
@@ -4566,7 +5148,7 @@
       </c>
       <c r="AE2" s="14"/>
       <c r="AG2" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AH2" s="14"/>
       <c r="AJ2" s="14" t="s">
@@ -4574,7 +5156,7 @@
       </c>
       <c r="AK2" s="14"/>
     </row>
-    <row r="3" spans="2:37">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>37</v>
       </c>
@@ -4616,15 +5198,15 @@
       </c>
       <c r="AE3" s="14"/>
       <c r="AG3" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AH3" s="14"/>
       <c r="AJ3" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AK3" s="14"/>
     </row>
-    <row r="4" spans="2:37">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +5286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:37">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -4784,7 +5366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:37">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -4864,7 +5446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:37">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -4944,7 +5526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:37">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -4958,7 +5540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:37">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -4972,7 +5554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:37">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -4986,7 +5568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:37">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -5000,7 +5582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:37">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
       <c r="L12" s="5">
         <v>8</v>
       </c>
@@ -5008,7 +5590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:37">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
       <c r="L13" s="5">
         <v>9</v>
       </c>
@@ -5018,6 +5600,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -5030,16 +5622,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5047,26 +5629,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -5077,7 +5659,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>116</v>
@@ -5086,7 +5668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -5100,7 +5682,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -5116,7 +5698,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -5132,7 +5714,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -5148,7 +5730,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -5164,7 +5746,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -5182,12 +5764,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>96</v>
@@ -5196,7 +5778,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -5210,63 +5792,63 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -5276,7 +5858,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -5286,7 +5868,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -5296,7 +5878,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -5306,7 +5888,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -5316,7 +5898,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -5334,26 +5916,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A78A60-FF7F-F340-BE7A-B4AB4410EDEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -5364,7 +5946,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>116</v>
@@ -5373,9 +5955,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>86</v>
@@ -5391,57 +5973,57 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5449,9 +6031,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5459,9 +6041,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5469,9 +6051,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5479,9 +6061,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="9">
-        <v>18</v>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>9</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5492,28 +6074,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -5527,7 +6110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -5537,79 +6120,85 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5">
+        <v>112</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="8"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>256</v>
+        <v>118</v>
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="8"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>119</v>
@@ -5619,9 +6208,9 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>121</v>
@@ -5631,9 +6220,9 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="16">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>123</v>
@@ -5643,9 +6232,9 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="9">
-        <v>9</v>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>125</v>
@@ -5655,67 +6244,106 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="8" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="1">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="C23" sqref="C23:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -5729,7 +6357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -5739,109 +6367,295 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1">
+      <c r="C5" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="C6" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5850,26 +6664,548 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
@@ -5883,7 +7219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5891,7 +7227,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5905,7 +7241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5916,7 +7252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -5930,7 +7266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -5941,10 +7277,10 @@
         <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -5955,23 +7291,23 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F23" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
@@ -5991,7 +7327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -6008,7 +7344,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>2</v>
       </c>
@@ -6025,7 +7361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>3</v>
       </c>
@@ -6042,83 +7378,83 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="3:8">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <v>12</v>
       </c>
@@ -6129,448 +7465,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>D21</f>
-        <v>P_DICT_DATA</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="1">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:I28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>E22&amp;":"&amp;D22</f>
-        <v>PAGE:ADD</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f>E23&amp;":"&amp;D23</f>
-        <v>PAGE:UPD</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f>E24&amp;":"&amp;D24</f>
-        <v>PAGE:EXPORT</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="1">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="305">
   <si>
     <t>operation</t>
   </si>
@@ -523,7 +523,672 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作编码，权限字符串</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例:P_DICT_DATA（页面）:PAGE（位置）:ADD（操作），该表应该只有页面的code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id；菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA（页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：ADD，UPD，……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA:PAGE:ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA（页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:UPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page；menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子个数</t>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单-首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_menus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型（R：根节点，M：菜单， N：结点 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单状态（0显示 1隐藏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由编号，需要唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附在导航栏不可关闭</t>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未使用，1:已使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父菜单ID</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>菜单类型（R：根结点；N：节点；P：页面）</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>菜单状态（0显示 1隐藏）</t>
+  </si>
+  <si>
+    <t>perms</t>
+  </si>
+  <si>
+    <t>权限标识</t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>页面id</t>
+  </si>
+  <si>
+    <t>page_code</t>
+  </si>
+  <si>
+    <t>页面code</t>
+  </si>
+  <si>
+    <t>parent_path</t>
+  </si>
+  <si>
+    <t>父结点请求地址</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>full_path</t>
+  </si>
+  <si>
+    <t>完整地址</t>
+  </si>
+  <si>
+    <t>route_name</t>
+  </si>
+  <si>
+    <t>路由名，需要唯一，很重要，且需要vue这里手工录入</t>
+  </si>
+  <si>
+    <t>meta_title</t>
+  </si>
+  <si>
+    <t>菜单名</t>
+  </si>
+  <si>
+    <t>meta_icon</t>
+  </si>
+  <si>
+    <t>菜单icon</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>affix</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>c_id</t>
+  </si>
+  <si>
+    <t>c_time</t>
+  </si>
+  <si>
+    <t>u_id</t>
+  </si>
+  <si>
+    <t>u_time</t>
+  </si>
+  <si>
+    <t>dbversion</t>
+  </si>
+  <si>
+    <t>数据版本，乐观锁使用</t>
+  </si>
+  <si>
+    <t>配置vue export default  name时所使用的type：constants_program.P_VUE_SETTING</t>
+  </si>
+  <si>
+    <t>页面名称</t>
+  </si>
+  <si>
+    <t>页面地址：@/views/10_system/vuesetting/vue</t>
+  </si>
+  <si>
+    <t>页面的名称</t>
+  </si>
+  <si>
+    <t>菜单中显示的icon</t>
+  </si>
+  <si>
+    <t>不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
+  </si>
+  <si>
+    <t>function_id</t>
+  </si>
+  <si>
+    <t>按钮id</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_menu的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_pages页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10（部门权限）、20（岗位权限）、30（用户权限）、40（排除权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是否是已经删除(1:true-已删除,0:false-未删除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>is_enable</t>
@@ -531,666 +1196,6 @@
   </si>
   <si>
     <t>是否禁用(1:false-未启用,0:true-已启用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租户id</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作编码，权限字符串</t>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serial_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serial_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例:P_DICT_DATA（页面）:PAGE（位置）:ADD（操作），该表应该只有页面的code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面id；菜单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：P_DICT_DATA（页面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/views/01_dashboard/index</t>
-  </si>
-  <si>
-    <t>perms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：ADD，UPD，……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：P_DICT_DATA:PAGE:ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：P_DICT_DATA（页面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA:PAGE:ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA:PAGE:UPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA:PAGE:EXPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面-字典表-新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面-字典表-更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面-字典表-导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控岗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page；menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘00010001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿子个数</t>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单-租户主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单-租户主菜单-首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/views/01_dashboard/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面操作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_menus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单类型（R：根节点，M：菜单， N：结点 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单状态（0显示 1隐藏）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求地址</t>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>route_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由编号，需要唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附在导航栏不可关闭</t>
-  </si>
-  <si>
-    <t>descr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未使用，1:已使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同s_pages_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同s_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单号类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>编码</t>
-  </si>
-  <si>
-    <t>菜单名称</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>父菜单ID</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>菜单类型（R：根结点；N：节点；P：页面）</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>菜单状态（0显示 1隐藏）</t>
-  </si>
-  <si>
-    <t>perms</t>
-  </si>
-  <si>
-    <t>权限标识</t>
-  </si>
-  <si>
-    <t>page_id</t>
-  </si>
-  <si>
-    <t>页面id</t>
-  </si>
-  <si>
-    <t>page_code</t>
-  </si>
-  <si>
-    <t>页面code</t>
-  </si>
-  <si>
-    <t>parent_path</t>
-  </si>
-  <si>
-    <t>父结点请求地址</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>full_path</t>
-  </si>
-  <si>
-    <t>完整地址</t>
-  </si>
-  <si>
-    <t>route_name</t>
-  </si>
-  <si>
-    <t>路由名，需要唯一，很重要，且需要vue这里手工录入</t>
-  </si>
-  <si>
-    <t>meta_title</t>
-  </si>
-  <si>
-    <t>菜单名</t>
-  </si>
-  <si>
-    <t>meta_icon</t>
-  </si>
-  <si>
-    <t>菜单icon</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>affix</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
-    <t>c_id</t>
-  </si>
-  <si>
-    <t>c_time</t>
-  </si>
-  <si>
-    <t>u_id</t>
-  </si>
-  <si>
-    <t>u_time</t>
-  </si>
-  <si>
-    <t>dbversion</t>
-  </si>
-  <si>
-    <t>数据版本，乐观锁使用</t>
-  </si>
-  <si>
-    <t>配置vue export default  name时所使用的type：constants_program.P_VUE_SETTING</t>
-  </si>
-  <si>
-    <t>页面名称</t>
-  </si>
-  <si>
-    <t>页面地址：@/views/10_system/vuesetting/vue</t>
-  </si>
-  <si>
-    <t>页面的名称</t>
-  </si>
-  <si>
-    <t>菜单中显示的icon</t>
-  </si>
-  <si>
-    <t>不能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
-  </si>
-  <si>
-    <t>function_id</t>
-  </si>
-  <si>
-    <t>按钮id</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_menu的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_pages页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10（部门权限）、20（岗位权限）、30（用户权限）、40（排除权限）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4398,13 +4403,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -4415,10 +4420,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4426,13 +4431,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -4440,13 +4445,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4454,10 +4459,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -4491,13 +4496,13 @@
         <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
@@ -4505,20 +4510,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>D21</f>
         <v>P_DICT_DATA</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
@@ -4610,10 +4615,10 @@
         <v>108</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -4621,13 +4626,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4638,7 +4643,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -4646,13 +4651,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4663,7 +4668,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -4671,10 +4676,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -4690,19 +4695,19 @@
         <v>108</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -4710,13 +4715,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>E22&amp;":"&amp;D22</f>
@@ -4731,13 +4736,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>E23&amp;":"&amp;D23</f>
@@ -4752,13 +4757,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>E24&amp;":"&amp;D24</f>
@@ -4846,7 +4851,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -4857,7 +4862,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4865,10 +4870,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -4876,10 +4881,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4887,10 +4892,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -4898,10 +4903,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -4909,10 +4914,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -4920,10 +4925,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -4931,10 +4936,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4942,10 +4947,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -4953,10 +4958,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -4964,10 +4969,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4975,10 +4980,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -4986,10 +4991,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -4997,10 +5002,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -5008,10 +5013,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -5019,10 +5024,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -5030,10 +5035,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -5097,13 +5102,13 @@
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AD1" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
@@ -5148,7 +5153,7 @@
       </c>
       <c r="AE2" s="14"/>
       <c r="AG2" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AH2" s="14"/>
       <c r="AJ2" s="14" t="s">
@@ -5198,11 +5203,11 @@
       </c>
       <c r="AE3" s="14"/>
       <c r="AG3" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AH3" s="14"/>
       <c r="AJ3" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AK3" s="14"/>
     </row>
@@ -5659,7 +5664,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>116</v>
@@ -5769,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>96</v>
@@ -5797,13 +5802,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -5813,13 +5818,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -5829,7 +5834,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -5841,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -5946,7 +5951,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>116</v>
@@ -5978,14 +5983,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -5994,14 +5999,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -6010,14 +6015,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -6083,7 +6088,7 @@
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6092,7 +6097,7 @@
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6131,7 +6136,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -6139,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -6151,10 +6156,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6175,10 +6180,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -6187,13 +6192,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -6216,7 +6221,7 @@
         <v>121</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -6225,10 +6230,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -6237,47 +6242,47 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -6301,10 +6306,10 @@
         <v>121</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
@@ -6312,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6372,10 +6377,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -6384,13 +6389,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -6398,10 +6403,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6410,10 +6415,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -6422,10 +6427,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -6434,10 +6439,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -6446,10 +6451,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -6458,10 +6463,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -6470,10 +6475,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -6482,10 +6487,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -6494,13 +6499,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6508,10 +6513,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -6520,10 +6525,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -6532,13 +6537,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -6546,13 +6551,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -6560,10 +6565,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -6572,13 +6577,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -6586,10 +6591,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -6598,10 +6603,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" s="8"/>
     </row>
@@ -6610,7 +6615,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -6620,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -6630,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -6640,7 +6645,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -6650,10 +6655,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -6710,10 +6715,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -6722,13 +6727,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -6736,13 +6741,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6750,13 +6755,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -6764,13 +6769,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -6778,13 +6783,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -6792,13 +6797,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -6806,13 +6811,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -6820,10 +6825,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -6832,11 +6837,11 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -6844,11 +6849,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6856,11 +6861,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -6868,11 +6873,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6880,13 +6885,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -7020,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7030,10 +7035,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -7042,10 +7047,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -7054,10 +7059,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -7066,10 +7071,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -7078,10 +7083,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -7090,10 +7095,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -7102,10 +7107,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -7114,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -7126,7 +7131,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7136,7 +7141,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -7146,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7156,7 +7161,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7166,10 +7171,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -7224,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -7235,10 +7240,10 @@
         <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -7246,10 +7251,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -7257,13 +7262,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -7271,13 +7276,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -7285,10 +7290,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -7296,15 +7301,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F23" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -7318,13 +7323,13 @@
         <v>117</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
@@ -7332,16 +7337,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
@@ -7349,16 +7354,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
@@ -7366,16 +7371,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -7383,16 +7388,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
@@ -7400,16 +7405,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
@@ -7417,16 +7422,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">

--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20925" tabRatio="714" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20925" tabRatio="714" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="309">
   <si>
     <t>operation</t>
   </si>
@@ -978,39 +978,232 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>权限表-菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父菜单ID</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>菜单类型（R：根结点；N：节点；P：页面）</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>菜单状态（0显示 1隐藏）</t>
+  </si>
+  <si>
+    <t>perms</t>
+  </si>
+  <si>
+    <t>权限标识</t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>页面id</t>
+  </si>
+  <si>
+    <t>page_code</t>
+  </si>
+  <si>
+    <t>页面code</t>
+  </si>
+  <si>
+    <t>parent_path</t>
+  </si>
+  <si>
+    <t>父结点请求地址</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>full_path</t>
+  </si>
+  <si>
+    <t>完整地址</t>
+  </si>
+  <si>
+    <t>route_name</t>
+  </si>
+  <si>
+    <t>路由名，需要唯一，很重要，且需要vue这里手工录入</t>
+  </si>
+  <si>
+    <t>meta_title</t>
+  </si>
+  <si>
+    <t>菜单名</t>
+  </si>
+  <si>
+    <t>meta_icon</t>
+  </si>
+  <si>
+    <t>菜单icon</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>affix</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>c_id</t>
+  </si>
+  <si>
+    <t>c_time</t>
+  </si>
+  <si>
+    <t>u_id</t>
+  </si>
+  <si>
+    <t>u_time</t>
+  </si>
+  <si>
+    <t>dbversion</t>
+  </si>
+  <si>
+    <t>数据版本，乐观锁使用</t>
+  </si>
+  <si>
+    <t>配置vue export default  name时所使用的type：constants_program.P_VUE_SETTING</t>
+  </si>
+  <si>
+    <t>页面名称</t>
+  </si>
+  <si>
+    <t>页面地址：@/views/10_system/vuesetting/vue</t>
+  </si>
+  <si>
+    <t>页面的名称</t>
+  </si>
+  <si>
+    <t>菜单中显示的icon</t>
+  </si>
+  <si>
+    <t>不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
+  </si>
+  <si>
+    <t>function_id</t>
+  </si>
+  <si>
+    <t>按钮id</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_menu的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_pages页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10（部门权限）、20（岗位权限）、30（用户权限）、40（排除权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是已经删除(1:true-已删除,0:false-未删除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用(1:false-未启用,0:true-已启用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m_permission_pages</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限表-菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表-操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同s_pages_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同s_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单号类型</t>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1018,185 +1211,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>编码</t>
-  </si>
-  <si>
-    <t>菜单名称</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>父菜单ID</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>菜单类型（R：根结点；N：节点；P：页面）</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>菜单状态（0显示 1隐藏）</t>
-  </si>
-  <si>
-    <t>perms</t>
-  </si>
-  <si>
-    <t>权限标识</t>
-  </si>
-  <si>
-    <t>page_id</t>
-  </si>
-  <si>
-    <t>页面id</t>
-  </si>
-  <si>
-    <t>page_code</t>
-  </si>
-  <si>
-    <t>页面code</t>
-  </si>
-  <si>
-    <t>parent_path</t>
-  </si>
-  <si>
-    <t>父结点请求地址</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>full_path</t>
-  </si>
-  <si>
-    <t>完整地址</t>
-  </si>
-  <si>
-    <t>route_name</t>
-  </si>
-  <si>
-    <t>路由名，需要唯一，很重要，且需要vue这里手工录入</t>
-  </si>
-  <si>
-    <t>meta_title</t>
-  </si>
-  <si>
-    <t>菜单名</t>
-  </si>
-  <si>
-    <t>meta_icon</t>
-  </si>
-  <si>
-    <t>菜单icon</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>affix</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
-    <t>c_id</t>
-  </si>
-  <si>
-    <t>c_time</t>
-  </si>
-  <si>
-    <t>u_id</t>
-  </si>
-  <si>
-    <t>u_time</t>
-  </si>
-  <si>
-    <t>dbversion</t>
-  </si>
-  <si>
-    <t>数据版本，乐观锁使用</t>
-  </si>
-  <si>
-    <t>配置vue export default  name时所使用的type：constants_program.P_VUE_SETTING</t>
-  </si>
-  <si>
-    <t>页面名称</t>
-  </si>
-  <si>
-    <t>页面地址：@/views/10_system/vuesetting/vue</t>
-  </si>
-  <si>
-    <t>页面的名称</t>
-  </si>
-  <si>
-    <t>菜单中显示的icon</t>
-  </si>
-  <si>
-    <t>不能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
-  </si>
-  <si>
-    <t>function_id</t>
-  </si>
-  <si>
-    <t>按钮id</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_menu的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_pages页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10（部门权限）、20（岗位权限）、30（用户权限）、40（排除权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是已经删除(1:true-已删除,0:false-未删除)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用(1:false-未启用,0:true-已启用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>operation_id</t>
   </si>
 </sst>
 </file>
@@ -5605,16 +5620,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -5627,6 +5632,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5922,10 +5937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5940,7 +5955,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -5960,12 +5975,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>84</v>
@@ -5978,7 +5993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -5986,47 +6001,56 @@
         <v>237</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -6036,7 +6060,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -6046,7 +6070,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -6056,7 +6080,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -6066,7 +6090,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -6087,8 +6111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6136,7 +6160,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -6147,7 +6171,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -6159,7 +6183,7 @@
         <v>130</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6180,10 +6204,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -6221,7 +6245,7 @@
         <v>121</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -6230,10 +6254,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -6251,38 +6275,38 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -6335,7 +6359,7 @@
   <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6377,10 +6401,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -6389,13 +6413,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -6403,10 +6427,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6415,7 +6439,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>176</v>
@@ -6427,10 +6451,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -6439,10 +6463,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -6451,10 +6475,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -6463,10 +6487,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -6475,10 +6499,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -6487,10 +6511,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -6499,13 +6523,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6513,10 +6537,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -6525,10 +6549,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -6537,13 +6561,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -6551,13 +6575,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -6565,10 +6589,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -6577,13 +6601,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -6591,7 +6615,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>140</v>
@@ -6615,7 +6639,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -6625,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -6635,7 +6659,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -6645,7 +6669,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -6655,10 +6679,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -6715,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -6727,13 +6751,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -6741,13 +6765,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6755,13 +6779,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -6769,13 +6793,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -6783,13 +6807,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -6797,13 +6821,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -6811,13 +6835,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -6837,11 +6861,11 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -6849,11 +6873,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6861,11 +6885,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -6873,11 +6897,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6885,13 +6909,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>287</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -7025,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7035,10 +7059,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -7047,10 +7071,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -7059,10 +7083,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -7071,7 +7095,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>176</v>
@@ -7083,10 +7107,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -7095,10 +7119,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -7107,7 +7131,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>140</v>
@@ -7131,7 +7155,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7141,7 +7165,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -7151,7 +7175,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7161,7 +7185,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7171,10 +7195,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="E16" s="8"/>
     </row>
